--- a/indextrends/amt/Communication Privacy/combined.xlsx
+++ b/indextrends/amt/Communication Privacy/combined.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaowns/Documents/PrivacySearchQueries/indextrends/amt/Communication Privacy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ShaownS/Documents/PrivacySearchQueries/indextrends/amt/Communication Privacy/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="combined" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>date</t>
   </si>
@@ -203,12 +203,21 @@
   <si>
     <t>combined</t>
   </si>
+  <si>
+    <t>how to encrypt text messages (non-scaled)</t>
+  </si>
+  <si>
+    <t>how to encrypt whatsapp messages (scaled to enc tool phone calls)</t>
+  </si>
+  <si>
+    <t>tool to encrypt phone calls (scaled to enc emails)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,6 +229,13 @@
       <b/>
       <sz val="12"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,13 +261,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,6 +585,9 @@
       <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
@@ -618,6 +641,9 @@
       <c r="I2">
         <v>467</v>
       </c>
+      <c r="J2">
+        <v>275</v>
+      </c>
       <c r="K2">
         <v>260</v>
       </c>
@@ -641,7 +667,7 @@
       </c>
       <c r="T2">
         <f>SUM(B2:S2)</f>
-        <v>2350</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -672,6 +698,9 @@
       <c r="I3">
         <v>582</v>
       </c>
+      <c r="J3">
+        <v>230</v>
+      </c>
       <c r="K3">
         <v>206</v>
       </c>
@@ -695,7 +724,7 @@
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T66" si="0">SUM(B3:S3)</f>
-        <v>2391</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -726,6 +755,9 @@
       <c r="I4">
         <v>539</v>
       </c>
+      <c r="J4">
+        <v>276</v>
+      </c>
       <c r="K4">
         <v>189</v>
       </c>
@@ -749,7 +781,7 @@
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>2450</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -780,6 +812,9 @@
       <c r="I5">
         <v>552</v>
       </c>
+      <c r="J5">
+        <v>196</v>
+      </c>
       <c r="K5">
         <v>165</v>
       </c>
@@ -803,7 +838,7 @@
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>2444</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -834,6 +869,9 @@
       <c r="I6">
         <v>397</v>
       </c>
+      <c r="J6">
+        <v>196</v>
+      </c>
       <c r="K6">
         <v>219</v>
       </c>
@@ -857,7 +895,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>2398</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -888,6 +926,9 @@
       <c r="I7">
         <v>524</v>
       </c>
+      <c r="J7">
+        <v>292</v>
+      </c>
       <c r="K7">
         <v>160</v>
       </c>
@@ -911,7 +952,7 @@
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>2368</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -942,6 +983,9 @@
       <c r="I8">
         <v>1428</v>
       </c>
+      <c r="J8">
+        <v>219</v>
+      </c>
       <c r="K8">
         <v>192</v>
       </c>
@@ -965,7 +1009,7 @@
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>3302</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -996,6 +1040,9 @@
       <c r="I9">
         <v>594</v>
       </c>
+      <c r="J9">
+        <v>158</v>
+      </c>
       <c r="K9">
         <v>180</v>
       </c>
@@ -1019,7 +1066,7 @@
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>2578</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1050,6 +1097,9 @@
       <c r="I10">
         <v>989</v>
       </c>
+      <c r="J10">
+        <v>194</v>
+      </c>
       <c r="K10">
         <v>187</v>
       </c>
@@ -1073,7 +1123,7 @@
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>2961</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -1104,6 +1154,9 @@
       <c r="I11">
         <v>693</v>
       </c>
+      <c r="J11">
+        <v>235</v>
+      </c>
       <c r="K11">
         <v>131</v>
       </c>
@@ -1127,7 +1180,7 @@
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>2615</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1158,6 +1211,9 @@
       <c r="I12">
         <v>594</v>
       </c>
+      <c r="J12">
+        <v>267</v>
+      </c>
       <c r="K12">
         <v>103</v>
       </c>
@@ -1181,7 +1237,7 @@
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>2628</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -1212,6 +1268,9 @@
       <c r="I13">
         <v>693</v>
       </c>
+      <c r="J13">
+        <v>191</v>
+      </c>
       <c r="K13">
         <v>126</v>
       </c>
@@ -1235,7 +1294,7 @@
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>3133</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -1266,6 +1325,9 @@
       <c r="I14">
         <v>580</v>
       </c>
+      <c r="J14">
+        <v>208</v>
+      </c>
       <c r="K14">
         <v>132</v>
       </c>
@@ -1289,7 +1351,7 @@
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>2948</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -1320,6 +1382,9 @@
       <c r="I15">
         <v>594</v>
       </c>
+      <c r="J15">
+        <v>189</v>
+      </c>
       <c r="K15">
         <v>164</v>
       </c>
@@ -1343,7 +1408,7 @@
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>2738</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -1374,6 +1439,9 @@
       <c r="I16">
         <v>651</v>
       </c>
+      <c r="J16">
+        <v>174</v>
+      </c>
       <c r="K16">
         <v>139</v>
       </c>
@@ -1397,7 +1465,7 @@
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>2988</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -1428,6 +1496,9 @@
       <c r="I17">
         <v>538</v>
       </c>
+      <c r="J17">
+        <v>282</v>
+      </c>
       <c r="K17">
         <v>145</v>
       </c>
@@ -1451,7 +1522,7 @@
       </c>
       <c r="T17">
         <f t="shared" si="0"/>
-        <v>3032</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -1482,6 +1553,9 @@
       <c r="I18">
         <v>594</v>
       </c>
+      <c r="J18">
+        <v>263</v>
+      </c>
       <c r="K18">
         <v>113</v>
       </c>
@@ -1505,7 +1579,7 @@
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>2797</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -1536,6 +1610,9 @@
       <c r="I19">
         <v>538</v>
       </c>
+      <c r="J19">
+        <v>154</v>
+      </c>
       <c r="K19">
         <v>145</v>
       </c>
@@ -1559,7 +1636,7 @@
       </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>2894</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -1590,6 +1667,9 @@
       <c r="I20">
         <v>495</v>
       </c>
+      <c r="J20">
+        <v>170</v>
+      </c>
       <c r="K20">
         <v>139</v>
       </c>
@@ -1613,7 +1693,7 @@
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>2928</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -1644,6 +1724,9 @@
       <c r="I21">
         <v>478</v>
       </c>
+      <c r="J21">
+        <v>197</v>
+      </c>
       <c r="K21">
         <v>189</v>
       </c>
@@ -1667,7 +1750,7 @@
       </c>
       <c r="T21">
         <f t="shared" si="0"/>
-        <v>2871</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -1698,6 +1781,9 @@
       <c r="I22">
         <v>566</v>
       </c>
+      <c r="J22">
+        <v>237</v>
+      </c>
       <c r="K22">
         <v>93</v>
       </c>
@@ -1721,7 +1807,7 @@
       </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>3184</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -1752,6 +1838,9 @@
       <c r="I23">
         <v>519</v>
       </c>
+      <c r="J23">
+        <v>196</v>
+      </c>
       <c r="K23">
         <v>107</v>
       </c>
@@ -1775,7 +1864,7 @@
       </c>
       <c r="T23">
         <f t="shared" si="0"/>
-        <v>3096</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -1806,6 +1895,9 @@
       <c r="I24">
         <v>491</v>
       </c>
+      <c r="J24">
+        <v>181</v>
+      </c>
       <c r="K24">
         <v>155</v>
       </c>
@@ -1829,7 +1921,7 @@
       </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>3238</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
@@ -1860,6 +1952,9 @@
       <c r="I25">
         <v>534</v>
       </c>
+      <c r="J25">
+        <v>108</v>
+      </c>
       <c r="K25">
         <v>100</v>
       </c>
@@ -1883,7 +1978,7 @@
       </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>3196</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -1914,6 +2009,9 @@
       <c r="I26">
         <v>453</v>
       </c>
+      <c r="J26">
+        <v>183</v>
+      </c>
       <c r="K26">
         <v>134</v>
       </c>
@@ -1937,7 +2035,7 @@
       </c>
       <c r="T26">
         <f t="shared" si="0"/>
-        <v>3279</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -1968,6 +2066,9 @@
       <c r="I27">
         <v>460</v>
       </c>
+      <c r="J27">
+        <v>237</v>
+      </c>
       <c r="K27">
         <v>138</v>
       </c>
@@ -1991,7 +2092,7 @@
       </c>
       <c r="T27">
         <f t="shared" si="0"/>
-        <v>3558</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -2022,6 +2123,9 @@
       <c r="I28">
         <v>454</v>
       </c>
+      <c r="J28">
+        <v>167</v>
+      </c>
       <c r="K28">
         <v>156</v>
       </c>
@@ -2045,7 +2149,7 @@
       </c>
       <c r="T28">
         <f t="shared" si="0"/>
-        <v>3478</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -2076,6 +2180,9 @@
       <c r="I29">
         <v>453</v>
       </c>
+      <c r="J29">
+        <v>196</v>
+      </c>
       <c r="K29">
         <v>131</v>
       </c>
@@ -2099,7 +2206,7 @@
       </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>3349</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -2130,6 +2237,9 @@
       <c r="I30">
         <v>496</v>
       </c>
+      <c r="J30">
+        <v>177</v>
+      </c>
       <c r="K30">
         <v>135</v>
       </c>
@@ -2153,7 +2263,7 @@
       </c>
       <c r="T30">
         <f t="shared" si="0"/>
-        <v>3734</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -2184,6 +2294,9 @@
       <c r="I31">
         <v>412</v>
       </c>
+      <c r="J31">
+        <v>294</v>
+      </c>
       <c r="K31">
         <v>203</v>
       </c>
@@ -2207,7 +2320,7 @@
       </c>
       <c r="T31">
         <f t="shared" si="0"/>
-        <v>4793</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -2238,6 +2351,9 @@
       <c r="I32">
         <v>628</v>
       </c>
+      <c r="J32">
+        <v>205</v>
+      </c>
       <c r="K32">
         <v>198</v>
       </c>
@@ -2261,7 +2377,7 @@
       </c>
       <c r="T32">
         <f t="shared" si="0"/>
-        <v>4567</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
@@ -2292,6 +2408,9 @@
       <c r="I33">
         <v>589</v>
       </c>
+      <c r="J33">
+        <v>190</v>
+      </c>
       <c r="K33">
         <v>147</v>
       </c>
@@ -2315,7 +2434,7 @@
       </c>
       <c r="T33">
         <f t="shared" si="0"/>
-        <v>4635</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -2346,6 +2465,9 @@
       <c r="I34">
         <v>486</v>
       </c>
+      <c r="J34">
+        <v>198</v>
+      </c>
       <c r="K34">
         <v>138</v>
       </c>
@@ -2369,7 +2491,7 @@
       </c>
       <c r="T34">
         <f t="shared" si="0"/>
-        <v>4145</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -2400,6 +2522,9 @@
       <c r="I35">
         <v>505</v>
       </c>
+      <c r="J35">
+        <v>221</v>
+      </c>
       <c r="K35">
         <v>115</v>
       </c>
@@ -2423,7 +2548,7 @@
       </c>
       <c r="T35">
         <f t="shared" si="0"/>
-        <v>4204</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -2454,6 +2579,9 @@
       <c r="I36">
         <v>525</v>
       </c>
+      <c r="J36">
+        <v>169</v>
+      </c>
       <c r="K36">
         <v>132</v>
       </c>
@@ -2477,7 +2605,7 @@
       </c>
       <c r="T36">
         <f t="shared" si="0"/>
-        <v>4405</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -2508,6 +2636,9 @@
       <c r="I37">
         <v>561</v>
       </c>
+      <c r="J37">
+        <v>229</v>
+      </c>
       <c r="K37">
         <v>127</v>
       </c>
@@ -2531,7 +2662,7 @@
       </c>
       <c r="T37">
         <f t="shared" si="0"/>
-        <v>4022</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
@@ -2562,6 +2693,9 @@
       <c r="I38">
         <v>436</v>
       </c>
+      <c r="J38">
+        <v>203</v>
+      </c>
       <c r="K38">
         <v>85</v>
       </c>
@@ -2585,7 +2719,7 @@
       </c>
       <c r="T38">
         <f t="shared" si="0"/>
-        <v>4234</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
@@ -2616,6 +2750,9 @@
       <c r="I39">
         <v>576</v>
       </c>
+      <c r="J39">
+        <v>179</v>
+      </c>
       <c r="K39">
         <v>133</v>
       </c>
@@ -2639,7 +2776,7 @@
       </c>
       <c r="T39">
         <f t="shared" si="0"/>
-        <v>4793</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
@@ -2670,6 +2807,9 @@
       <c r="I40">
         <v>531</v>
       </c>
+      <c r="J40">
+        <v>188</v>
+      </c>
       <c r="K40">
         <v>103</v>
       </c>
@@ -2693,7 +2833,7 @@
       </c>
       <c r="T40">
         <f t="shared" si="0"/>
-        <v>4561</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
@@ -2724,6 +2864,9 @@
       <c r="I41">
         <v>474</v>
       </c>
+      <c r="J41">
+        <v>238</v>
+      </c>
       <c r="K41">
         <v>89</v>
       </c>
@@ -2747,7 +2890,7 @@
       </c>
       <c r="T41">
         <f t="shared" si="0"/>
-        <v>3905</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -2778,6 +2921,9 @@
       <c r="I42">
         <v>542</v>
       </c>
+      <c r="J42">
+        <v>158</v>
+      </c>
       <c r="K42">
         <v>101</v>
       </c>
@@ -2801,7 +2947,7 @@
       </c>
       <c r="T42">
         <f t="shared" si="0"/>
-        <v>4364</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -2832,6 +2978,9 @@
       <c r="I43">
         <v>531</v>
       </c>
+      <c r="J43">
+        <v>209</v>
+      </c>
       <c r="K43">
         <v>93</v>
       </c>
@@ -2855,7 +3004,7 @@
       </c>
       <c r="T43">
         <f t="shared" si="0"/>
-        <v>4176</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -2886,6 +3035,9 @@
       <c r="I44">
         <v>512</v>
       </c>
+      <c r="J44">
+        <v>198</v>
+      </c>
       <c r="K44">
         <v>104</v>
       </c>
@@ -2909,7 +3061,7 @@
       </c>
       <c r="T44">
         <f t="shared" si="0"/>
-        <v>4379</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -2940,6 +3092,9 @@
       <c r="I45">
         <v>412</v>
       </c>
+      <c r="J45">
+        <v>153</v>
+      </c>
       <c r="K45">
         <v>72</v>
       </c>
@@ -2963,7 +3118,7 @@
       </c>
       <c r="T45">
         <f t="shared" si="0"/>
-        <v>4860</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
@@ -2994,6 +3149,9 @@
       <c r="I46">
         <v>616</v>
       </c>
+      <c r="J46">
+        <v>201</v>
+      </c>
       <c r="K46">
         <v>100</v>
       </c>
@@ -3017,7 +3175,7 @@
       </c>
       <c r="T46">
         <f t="shared" si="0"/>
-        <v>4607</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -3048,6 +3206,9 @@
       <c r="I47">
         <v>502</v>
       </c>
+      <c r="J47">
+        <v>250</v>
+      </c>
       <c r="K47">
         <v>113</v>
       </c>
@@ -3071,7 +3232,7 @@
       </c>
       <c r="T47">
         <f t="shared" si="0"/>
-        <v>4366</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
@@ -3102,6 +3263,9 @@
       <c r="I48">
         <v>635</v>
       </c>
+      <c r="J48">
+        <v>214</v>
+      </c>
       <c r="K48">
         <v>98</v>
       </c>
@@ -3125,7 +3289,7 @@
       </c>
       <c r="T48">
         <f t="shared" si="0"/>
-        <v>4811</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
@@ -3156,6 +3320,9 @@
       <c r="I49">
         <v>431</v>
       </c>
+      <c r="J49">
+        <v>167</v>
+      </c>
       <c r="K49">
         <v>94</v>
       </c>
@@ -3179,7 +3346,7 @@
       </c>
       <c r="T49">
         <f t="shared" si="0"/>
-        <v>4467</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
@@ -3210,6 +3377,9 @@
       <c r="I50">
         <v>467</v>
       </c>
+      <c r="J50">
+        <v>209</v>
+      </c>
       <c r="K50">
         <v>100</v>
       </c>
@@ -3233,7 +3403,7 @@
       </c>
       <c r="T50">
         <f t="shared" si="0"/>
-        <v>4988</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
@@ -3264,6 +3434,9 @@
       <c r="I51">
         <v>503</v>
       </c>
+      <c r="J51">
+        <v>211</v>
+      </c>
       <c r="K51">
         <v>116</v>
       </c>
@@ -3287,7 +3460,7 @@
       </c>
       <c r="T51">
         <f t="shared" si="0"/>
-        <v>5496</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
@@ -3318,6 +3491,9 @@
       <c r="I52">
         <v>483</v>
       </c>
+      <c r="J52">
+        <v>242</v>
+      </c>
       <c r="K52">
         <v>109</v>
       </c>
@@ -3341,7 +3517,7 @@
       </c>
       <c r="T52">
         <f t="shared" si="0"/>
-        <v>5209</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
@@ -3372,6 +3548,9 @@
       <c r="I53">
         <v>503</v>
       </c>
+      <c r="J53">
+        <v>169</v>
+      </c>
       <c r="K53">
         <v>89</v>
       </c>
@@ -3395,7 +3574,7 @@
       </c>
       <c r="T53">
         <f t="shared" si="0"/>
-        <v>5135</v>
+        <v>5304</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
@@ -3426,6 +3605,9 @@
       <c r="I54">
         <v>524</v>
       </c>
+      <c r="J54">
+        <v>145</v>
+      </c>
       <c r="K54">
         <v>75</v>
       </c>
@@ -3449,7 +3631,7 @@
       </c>
       <c r="T54">
         <f t="shared" si="0"/>
-        <v>4949</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
@@ -3480,6 +3662,9 @@
       <c r="I55">
         <v>547</v>
       </c>
+      <c r="J55">
+        <v>175</v>
+      </c>
       <c r="K55">
         <v>89</v>
       </c>
@@ -3503,7 +3688,7 @@
       </c>
       <c r="T55">
         <f t="shared" si="0"/>
-        <v>4812</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
@@ -3534,6 +3719,9 @@
       <c r="I56">
         <v>510</v>
       </c>
+      <c r="J56">
+        <v>160</v>
+      </c>
       <c r="K56">
         <v>93</v>
       </c>
@@ -3557,7 +3745,7 @@
       </c>
       <c r="T56">
         <f t="shared" si="0"/>
-        <v>5295</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
@@ -3588,6 +3776,9 @@
       <c r="I57">
         <v>557</v>
       </c>
+      <c r="J57">
+        <v>200</v>
+      </c>
       <c r="K57">
         <v>97</v>
       </c>
@@ -3611,7 +3802,7 @@
       </c>
       <c r="T57">
         <f t="shared" si="0"/>
-        <v>5678</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
@@ -3642,6 +3833,9 @@
       <c r="I58">
         <v>512</v>
       </c>
+      <c r="J58">
+        <v>185</v>
+      </c>
       <c r="K58">
         <v>99</v>
       </c>
@@ -3665,7 +3859,7 @@
       </c>
       <c r="T58">
         <f t="shared" si="0"/>
-        <v>5712</v>
+        <v>5897</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
@@ -3696,6 +3890,9 @@
       <c r="I59">
         <v>399</v>
       </c>
+      <c r="J59">
+        <v>216</v>
+      </c>
       <c r="K59">
         <v>83</v>
       </c>
@@ -3719,7 +3916,7 @@
       </c>
       <c r="T59">
         <f t="shared" si="0"/>
-        <v>5231</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
@@ -3750,6 +3947,9 @@
       <c r="I60">
         <v>403</v>
       </c>
+      <c r="J60">
+        <v>219</v>
+      </c>
       <c r="K60">
         <v>86</v>
       </c>
@@ -3773,7 +3973,7 @@
       </c>
       <c r="T60">
         <f t="shared" si="0"/>
-        <v>5360</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
@@ -3804,6 +4004,9 @@
       <c r="I61">
         <v>418</v>
       </c>
+      <c r="J61">
+        <v>197</v>
+      </c>
       <c r="K61">
         <v>99</v>
       </c>
@@ -3827,7 +4030,7 @@
       </c>
       <c r="T61">
         <f t="shared" si="0"/>
-        <v>5390</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
@@ -3858,6 +4061,9 @@
       <c r="I62">
         <v>449</v>
       </c>
+      <c r="J62">
+        <v>172</v>
+      </c>
       <c r="K62">
         <v>80</v>
       </c>
@@ -3881,7 +4087,7 @@
       </c>
       <c r="T62">
         <f t="shared" si="0"/>
-        <v>5079</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
@@ -3912,6 +4118,9 @@
       <c r="I63">
         <v>393</v>
       </c>
+      <c r="J63">
+        <v>199</v>
+      </c>
       <c r="K63">
         <v>110</v>
       </c>
@@ -3935,7 +4144,7 @@
       </c>
       <c r="T63">
         <f t="shared" si="0"/>
-        <v>5461</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
@@ -3966,6 +4175,9 @@
       <c r="I64">
         <v>409</v>
       </c>
+      <c r="J64">
+        <v>205</v>
+      </c>
       <c r="K64">
         <v>143</v>
       </c>
@@ -3989,7 +4201,7 @@
       </c>
       <c r="T64">
         <f t="shared" si="0"/>
-        <v>5673</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
@@ -4020,6 +4232,9 @@
       <c r="I65">
         <v>469</v>
       </c>
+      <c r="J65">
+        <v>260</v>
+      </c>
       <c r="K65">
         <v>165</v>
       </c>
@@ -4043,7 +4258,7 @@
       </c>
       <c r="T65">
         <f t="shared" si="0"/>
-        <v>9359</v>
+        <v>9619</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
@@ -4074,6 +4289,9 @@
       <c r="I66">
         <v>388</v>
       </c>
+      <c r="J66">
+        <v>168</v>
+      </c>
       <c r="K66">
         <v>127</v>
       </c>
@@ -4097,7 +4315,7 @@
       </c>
       <c r="T66">
         <f t="shared" si="0"/>
-        <v>6124</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
@@ -4128,6 +4346,9 @@
       <c r="I67">
         <v>373</v>
       </c>
+      <c r="J67">
+        <v>142</v>
+      </c>
       <c r="K67">
         <v>108</v>
       </c>
@@ -4151,7 +4372,7 @@
       </c>
       <c r="T67">
         <f t="shared" ref="T67:T74" si="1">SUM(B67:S67)</f>
-        <v>5515</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
@@ -4182,6 +4403,9 @@
       <c r="I68">
         <v>399</v>
       </c>
+      <c r="J68">
+        <v>112</v>
+      </c>
       <c r="K68">
         <v>106</v>
       </c>
@@ -4205,7 +4429,7 @@
       </c>
       <c r="T68">
         <f t="shared" si="1"/>
-        <v>5559</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -4236,6 +4460,9 @@
       <c r="I69">
         <v>379</v>
       </c>
+      <c r="J69">
+        <v>159</v>
+      </c>
       <c r="K69">
         <v>110</v>
       </c>
@@ -4259,7 +4486,7 @@
       </c>
       <c r="T69">
         <f t="shared" si="1"/>
-        <v>5803</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -4290,6 +4517,9 @@
       <c r="I70">
         <v>384</v>
       </c>
+      <c r="J70">
+        <v>152</v>
+      </c>
       <c r="K70">
         <v>137</v>
       </c>
@@ -4313,7 +4543,7 @@
       </c>
       <c r="T70">
         <f t="shared" si="1"/>
-        <v>5967</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
@@ -4344,6 +4574,9 @@
       <c r="I71">
         <v>319</v>
       </c>
+      <c r="J71">
+        <v>159</v>
+      </c>
       <c r="K71">
         <v>121</v>
       </c>
@@ -4367,7 +4600,7 @@
       </c>
       <c r="T71">
         <f t="shared" si="1"/>
-        <v>5652</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
@@ -4398,6 +4631,9 @@
       <c r="I72">
         <v>354</v>
       </c>
+      <c r="J72">
+        <v>201</v>
+      </c>
       <c r="K72">
         <v>106</v>
       </c>
@@ -4421,7 +4657,7 @@
       </c>
       <c r="T72">
         <f t="shared" si="1"/>
-        <v>6032</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
@@ -4452,6 +4688,9 @@
       <c r="I73">
         <v>351</v>
       </c>
+      <c r="J73">
+        <v>162</v>
+      </c>
       <c r="K73">
         <v>96</v>
       </c>
@@ -4475,7 +4714,7 @@
       </c>
       <c r="T73">
         <f t="shared" si="1"/>
-        <v>5504</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
@@ -4506,6 +4745,9 @@
       <c r="I74">
         <v>413</v>
       </c>
+      <c r="J74">
+        <v>155</v>
+      </c>
       <c r="K74">
         <v>89</v>
       </c>
@@ -4529,7 +4771,7 @@
       </c>
       <c r="T74">
         <f t="shared" si="1"/>
-        <v>6167</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
@@ -8925,15 +9167,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="C1:C1048576 H1:H1048576"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8964,8 +9206,20 @@
       <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>40544</v>
       </c>
@@ -8998,8 +9252,21 @@
       <c r="L2">
         <v>263</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <f>CEILING(L2*(209/200), 1)</f>
+        <v>275</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>40575</v>
       </c>
@@ -9032,8 +9299,21 @@
       <c r="L3">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="2">CEILING(L3*(209/200), 1)</f>
+        <v>230</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>40603</v>
       </c>
@@ -9066,8 +9346,21 @@
       <c r="L4">
         <v>264</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>40634</v>
       </c>
@@ -9100,8 +9393,21 @@
       <c r="L5">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>40664</v>
       </c>
@@ -9134,8 +9440,21 @@
       <c r="L6">
         <v>187</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>40695</v>
       </c>
@@ -9168,8 +9487,21 @@
       <c r="L7">
         <v>279</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>40725</v>
       </c>
@@ -9202,8 +9534,21 @@
       <c r="L8">
         <v>209</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>219</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>40756</v>
       </c>
@@ -9236,8 +9581,21 @@
       <c r="L9">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>40787</v>
       </c>
@@ -9270,8 +9628,21 @@
       <c r="L10">
         <v>185</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>40817</v>
       </c>
@@ -9304,8 +9675,21 @@
       <c r="L11">
         <v>224</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>40848</v>
       </c>
@@ -9338,8 +9722,21 @@
       <c r="L12">
         <v>255</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>40878</v>
       </c>
@@ -9372,8 +9769,21 @@
       <c r="L13">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>40909</v>
       </c>
@@ -9406,8 +9816,21 @@
       <c r="L14">
         <v>199</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>40940</v>
       </c>
@@ -9440,8 +9863,21 @@
       <c r="L15">
         <v>180</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>40969</v>
       </c>
@@ -9474,8 +9910,21 @@
       <c r="L16">
         <v>166</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>41000</v>
       </c>
@@ -9508,8 +9957,21 @@
       <c r="L17">
         <v>269</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>41030</v>
       </c>
@@ -9542,8 +10004,21 @@
       <c r="L18">
         <v>251</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>41061</v>
       </c>
@@ -9576,8 +10051,21 @@
       <c r="L19">
         <v>147</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>41091</v>
       </c>
@@ -9610,8 +10098,21 @@
       <c r="L20">
         <v>162</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="N20">
+        <v>14</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>41122</v>
       </c>
@@ -9644,8 +10145,21 @@
       <c r="L21">
         <v>188</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>41153</v>
       </c>
@@ -9678,8 +10192,21 @@
       <c r="L22">
         <v>226</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="N22">
+        <v>14</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>41183</v>
       </c>
@@ -9712,8 +10239,21 @@
       <c r="L23">
         <v>187</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>41214</v>
       </c>
@@ -9746,8 +10286,21 @@
       <c r="L24">
         <v>173</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>41244</v>
       </c>
@@ -9780,8 +10333,21 @@
       <c r="L25">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="N25">
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>41275</v>
       </c>
@@ -9814,8 +10380,21 @@
       <c r="L26">
         <v>175</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>41306</v>
       </c>
@@ -9848,8 +10427,21 @@
       <c r="L27">
         <v>226</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>13</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>41334</v>
       </c>
@@ -9882,8 +10474,21 @@
       <c r="L28">
         <v>159</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>11</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>41365</v>
       </c>
@@ -9916,8 +10521,21 @@
       <c r="L29">
         <v>187</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>41395</v>
       </c>
@@ -9950,8 +10568,21 @@
       <c r="L30">
         <v>169</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>11</v>
+      </c>
+      <c r="P30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>41426</v>
       </c>
@@ -9984,8 +10615,21 @@
       <c r="L31">
         <v>281</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>294</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>11</v>
+      </c>
+      <c r="P31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>41456</v>
       </c>
@@ -10018,8 +10662,21 @@
       <c r="L32">
         <v>196</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="N32">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>41487</v>
       </c>
@@ -10052,8 +10709,21 @@
       <c r="L33">
         <v>181</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <v>11</v>
+      </c>
+      <c r="P33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>41518</v>
       </c>
@@ -10086,8 +10756,21 @@
       <c r="L34">
         <v>189</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="N34">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>41548</v>
       </c>
@@ -10120,8 +10803,21 @@
       <c r="L35">
         <v>211</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>221</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>11</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>41579</v>
       </c>
@@ -10154,8 +10850,21 @@
       <c r="L36">
         <v>161</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="N36">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>11</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>41609</v>
       </c>
@@ -10188,8 +10897,21 @@
       <c r="L37">
         <v>219</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="N37">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>41640</v>
       </c>
@@ -10222,8 +10944,21 @@
       <c r="L38">
         <v>194</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>9</v>
+      </c>
+      <c r="P38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>41671</v>
       </c>
@@ -10256,8 +10991,21 @@
       <c r="L39">
         <v>171</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>13</v>
+      </c>
+      <c r="P39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>41699</v>
       </c>
@@ -10290,8 +11038,21 @@
       <c r="L40">
         <v>179</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>9</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41730</v>
       </c>
@@ -10324,8 +11085,21 @@
       <c r="L41">
         <v>227</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>9</v>
+      </c>
+      <c r="P41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41760</v>
       </c>
@@ -10358,8 +11132,21 @@
       <c r="L42">
         <v>151</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>23</v>
+      </c>
+      <c r="P42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41791</v>
       </c>
@@ -10392,8 +11179,21 @@
       <c r="L43">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>11</v>
+      </c>
+      <c r="P43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>41821</v>
       </c>
@@ -10426,8 +11226,21 @@
       <c r="L44">
         <v>189</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="N44">
+        <v>22</v>
+      </c>
+      <c r="O44">
+        <v>15</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>41852</v>
       </c>
@@ -10460,8 +11273,21 @@
       <c r="L45">
         <v>146</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="N45">
+        <v>32</v>
+      </c>
+      <c r="O45">
+        <v>17</v>
+      </c>
+      <c r="P45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>41883</v>
       </c>
@@ -10494,8 +11320,21 @@
       <c r="L46">
         <v>192</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+      <c r="N46">
+        <v>20</v>
+      </c>
+      <c r="O46">
+        <v>15</v>
+      </c>
+      <c r="P46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>41913</v>
       </c>
@@ -10528,8 +11367,21 @@
       <c r="L47">
         <v>239</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="O47">
+        <v>13</v>
+      </c>
+      <c r="P47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>41944</v>
       </c>
@@ -10562,8 +11414,21 @@
       <c r="L48">
         <v>204</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <f t="shared" si="2"/>
+        <v>214</v>
+      </c>
+      <c r="N48">
+        <v>30</v>
+      </c>
+      <c r="O48">
+        <v>9</v>
+      </c>
+      <c r="P48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>41974</v>
       </c>
@@ -10596,8 +11461,21 @@
       <c r="L49">
         <v>159</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="N49">
+        <v>20</v>
+      </c>
+      <c r="O49">
+        <v>15</v>
+      </c>
+      <c r="P49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42005</v>
       </c>
@@ -10630,8 +11508,21 @@
       <c r="L50">
         <v>200</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42036</v>
       </c>
@@ -10664,8 +11555,21 @@
       <c r="L51">
         <v>201</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <f t="shared" si="2"/>
+        <v>211</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>9</v>
+      </c>
+      <c r="P51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42064</v>
       </c>
@@ -10698,8 +11602,21 @@
       <c r="L52">
         <v>231</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>13</v>
+      </c>
+      <c r="P52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>42095</v>
       </c>
@@ -10732,8 +11649,21 @@
       <c r="L53">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>9</v>
+      </c>
+      <c r="P53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>42125</v>
       </c>
@@ -10766,8 +11696,21 @@
       <c r="L54">
         <v>138</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="N54">
+        <v>36</v>
+      </c>
+      <c r="O54">
+        <v>9</v>
+      </c>
+      <c r="P54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42156</v>
       </c>
@@ -10800,8 +11743,21 @@
       <c r="L55">
         <v>167</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="N55">
+        <v>18</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>42186</v>
       </c>
@@ -10834,8 +11790,21 @@
       <c r="L56">
         <v>153</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="N56">
+        <v>10</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>42217</v>
       </c>
@@ -10868,8 +11837,21 @@
       <c r="L57">
         <v>191</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="N57">
+        <v>10</v>
+      </c>
+      <c r="O57">
+        <v>17</v>
+      </c>
+      <c r="P57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>42248</v>
       </c>
@@ -10902,8 +11884,21 @@
       <c r="L58">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="N58">
+        <v>8</v>
+      </c>
+      <c r="O58">
+        <v>15</v>
+      </c>
+      <c r="P58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42278</v>
       </c>
@@ -10936,8 +11931,21 @@
       <c r="L59">
         <v>206</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="N59">
+        <v>12</v>
+      </c>
+      <c r="O59">
+        <v>13</v>
+      </c>
+      <c r="P59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42309</v>
       </c>
@@ -10970,8 +11978,21 @@
       <c r="L60">
         <v>209</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <f t="shared" si="2"/>
+        <v>219</v>
+      </c>
+      <c r="N60">
+        <v>12</v>
+      </c>
+      <c r="O60">
+        <v>17</v>
+      </c>
+      <c r="P60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>42339</v>
       </c>
@@ -11004,8 +12025,21 @@
       <c r="L61">
         <v>188</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="N61">
+        <v>18</v>
+      </c>
+      <c r="O61">
+        <v>11</v>
+      </c>
+      <c r="P61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42370</v>
       </c>
@@ -11038,8 +12072,21 @@
       <c r="L62">
         <v>164</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="N62">
+        <v>8</v>
+      </c>
+      <c r="O62">
+        <v>11</v>
+      </c>
+      <c r="P62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>42401</v>
       </c>
@@ -11072,8 +12119,21 @@
       <c r="L63">
         <v>190</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <f t="shared" si="2"/>
+        <v>199</v>
+      </c>
+      <c r="N63">
+        <v>8</v>
+      </c>
+      <c r="O63">
+        <v>9</v>
+      </c>
+      <c r="P63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42430</v>
       </c>
@@ -11106,8 +12166,21 @@
       <c r="L64">
         <v>196</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+      <c r="N64">
+        <v>16</v>
+      </c>
+      <c r="O64">
+        <v>11</v>
+      </c>
+      <c r="P64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42461</v>
       </c>
@@ -11140,8 +12213,21 @@
       <c r="L65">
         <v>248</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="N65" s="2">
+        <v>200</v>
+      </c>
+      <c r="O65" s="2">
+        <v>209</v>
+      </c>
+      <c r="P65" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42491</v>
       </c>
@@ -11174,8 +12260,21 @@
       <c r="L66">
         <v>160</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="N66">
+        <v>34</v>
+      </c>
+      <c r="O66">
+        <v>38</v>
+      </c>
+      <c r="P66">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42522</v>
       </c>
@@ -11183,7 +12282,7 @@
         <v>61</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C74" si="2">CEILING(B67*(73/100), 1)</f>
+        <f t="shared" ref="C67:C74" si="3">CEILING(B67*(73/100), 1)</f>
         <v>45</v>
       </c>
       <c r="D67">
@@ -11196,7 +12295,7 @@
         <v>293</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H74" si="3">CEILING(G67*(127/100), 1)</f>
+        <f t="shared" ref="H67:H74" si="4">CEILING(G67*(127/100), 1)</f>
         <v>373</v>
       </c>
       <c r="I67">
@@ -11208,8 +12307,21 @@
       <c r="L67">
         <v>135</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67">
+        <f t="shared" ref="M67:M74" si="5">CEILING(L67*(209/200), 1)</f>
+        <v>142</v>
+      </c>
+      <c r="N67">
+        <v>36</v>
+      </c>
+      <c r="O67">
+        <v>28</v>
+      </c>
+      <c r="P67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42552</v>
       </c>
@@ -11217,7 +12329,7 @@
         <v>57</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="D68">
@@ -11230,7 +12342,7 @@
         <v>314</v>
       </c>
       <c r="H68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>399</v>
       </c>
       <c r="I68">
@@ -11242,8 +12354,21 @@
       <c r="L68">
         <v>107</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="N68">
+        <v>20</v>
+      </c>
+      <c r="O68">
+        <v>30</v>
+      </c>
+      <c r="P68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42583</v>
       </c>
@@ -11251,7 +12376,7 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="D69">
@@ -11264,7 +12389,7 @@
         <v>298</v>
       </c>
       <c r="H69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>379</v>
       </c>
       <c r="I69">
@@ -11276,8 +12401,21 @@
       <c r="L69">
         <v>152</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="N69">
+        <v>12</v>
+      </c>
+      <c r="O69">
+        <v>19</v>
+      </c>
+      <c r="P69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>42614</v>
       </c>
@@ -11285,7 +12423,7 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="D70" s="2">
@@ -11298,7 +12436,7 @@
         <v>302</v>
       </c>
       <c r="H70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>384</v>
       </c>
       <c r="I70">
@@ -11310,8 +12448,21 @@
       <c r="L70">
         <v>145</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+      <c r="N70">
+        <v>8</v>
+      </c>
+      <c r="O70">
+        <v>23</v>
+      </c>
+      <c r="P70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>42644</v>
       </c>
@@ -11319,7 +12470,7 @@
         <v>53</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="D71">
@@ -11332,7 +12483,7 @@
         <v>251</v>
       </c>
       <c r="H71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
       <c r="I71">
@@ -11344,8 +12495,21 @@
       <c r="L71">
         <v>152</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="N71">
+        <v>14</v>
+      </c>
+      <c r="O71">
+        <v>28</v>
+      </c>
+      <c r="P71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>42675</v>
       </c>
@@ -11353,7 +12517,7 @@
         <v>89</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="D72">
@@ -11366,7 +12530,7 @@
         <v>278</v>
       </c>
       <c r="H72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>354</v>
       </c>
       <c r="I72">
@@ -11378,8 +12542,21 @@
       <c r="L72">
         <v>192</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72">
+        <f t="shared" si="5"/>
+        <v>201</v>
+      </c>
+      <c r="N72">
+        <v>26</v>
+      </c>
+      <c r="O72">
+        <v>7</v>
+      </c>
+      <c r="P72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>42705</v>
       </c>
@@ -11387,7 +12564,7 @@
         <v>75</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="D73">
@@ -11400,7 +12577,7 @@
         <v>276</v>
       </c>
       <c r="H73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>351</v>
       </c>
       <c r="I73">
@@ -11412,8 +12589,21 @@
       <c r="L73">
         <v>155</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="N73">
+        <v>36</v>
+      </c>
+      <c r="O73">
+        <v>36</v>
+      </c>
+      <c r="P73">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42736</v>
       </c>
@@ -11421,7 +12611,7 @@
         <v>67</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="D74">
@@ -11434,7 +12624,7 @@
         <v>325</v>
       </c>
       <c r="H74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>413</v>
       </c>
       <c r="I74">
@@ -11446,23 +12636,40 @@
       <c r="L74">
         <v>148</v>
       </c>
+      <c r="M74">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+      <c r="N74">
+        <v>24</v>
+      </c>
+      <c r="O74">
+        <v>17</v>
+      </c>
+      <c r="P74">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="C1:C1048576 H1:H1048576"/>
+    <sheetView showRuler="0" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O1" activeCellId="1" sqref="N1:N1048576 O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="15" width="10.83203125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -11493,11 +12700,14 @@
       <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>40544</v>
       </c>
@@ -11530,11 +12740,14 @@
       <c r="L2">
         <v>49</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>40575</v>
       </c>
@@ -11567,11 +12780,14 @@
       <c r="L3">
         <v>34</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>40603</v>
       </c>
@@ -11604,11 +12820,14 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>40634</v>
       </c>
@@ -11641,11 +12860,14 @@
       <c r="L5">
         <v>33</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>40664</v>
       </c>
@@ -11678,11 +12900,14 @@
       <c r="L6">
         <v>31</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>40695</v>
       </c>
@@ -11715,11 +12940,14 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>40725</v>
       </c>
@@ -11752,11 +12980,14 @@
       <c r="L8">
         <v>95</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>40756</v>
       </c>
@@ -11789,11 +13020,14 @@
       <c r="L9">
         <v>90</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>40787</v>
       </c>
@@ -11826,11 +13060,14 @@
       <c r="L10">
         <v>58</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>40817</v>
       </c>
@@ -11863,11 +13100,14 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>40848</v>
       </c>
@@ -11900,11 +13140,14 @@
       <c r="L12">
         <v>83</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>40878</v>
       </c>
@@ -11937,11 +13180,14 @@
       <c r="L13">
         <v>55</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>40909</v>
       </c>
@@ -11974,11 +13220,14 @@
       <c r="L14">
         <v>25</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>40940</v>
       </c>
@@ -12011,11 +13260,14 @@
       <c r="L15">
         <v>53</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>40969</v>
       </c>
@@ -12048,11 +13300,14 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>41000</v>
       </c>
@@ -12085,11 +13340,14 @@
       <c r="L17">
         <v>39</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>41030</v>
       </c>
@@ -12122,11 +13380,14 @@
       <c r="L18">
         <v>24</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>41061</v>
       </c>
@@ -12159,11 +13420,14 @@
       <c r="L19">
         <v>50</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>41091</v>
       </c>
@@ -12196,11 +13460,14 @@
       <c r="L20">
         <v>25</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>41122</v>
       </c>
@@ -12233,11 +13500,14 @@
       <c r="L21">
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>41153</v>
       </c>
@@ -12270,11 +13540,14 @@
       <c r="L22">
         <v>48</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>41183</v>
       </c>
@@ -12307,11 +13580,14 @@
       <c r="L23">
         <v>33</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>41214</v>
       </c>
@@ -12344,11 +13620,14 @@
       <c r="L24">
         <v>22</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>41244</v>
       </c>
@@ -12381,11 +13660,14 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>41275</v>
       </c>
@@ -12418,11 +13700,14 @@
       <c r="L26">
         <v>30</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>41306</v>
       </c>
@@ -12455,11 +13740,14 @@
       <c r="L27">
         <v>67</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="5">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>41334</v>
       </c>
@@ -12492,11 +13780,14 @@
       <c r="L28">
         <v>30</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>41365</v>
       </c>
@@ -12529,11 +13820,14 @@
       <c r="L29">
         <v>70</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>41395</v>
       </c>
@@ -12566,11 +13860,14 @@
       <c r="L30">
         <v>19</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>41426</v>
       </c>
@@ -12603,11 +13900,14 @@
       <c r="L31">
         <v>40</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>41456</v>
       </c>
@@ -12640,11 +13940,14 @@
       <c r="L32">
         <v>49</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>41487</v>
       </c>
@@ -12677,11 +13980,14 @@
       <c r="L33">
         <v>39</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>41518</v>
       </c>
@@ -12714,11 +14020,14 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>41548</v>
       </c>
@@ -12751,11 +14060,14 @@
       <c r="L35">
         <v>37</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>41579</v>
       </c>
@@ -12788,11 +14100,14 @@
       <c r="L36">
         <v>37</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>41609</v>
       </c>
@@ -12825,11 +14140,14 @@
       <c r="L37">
         <v>46</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>41640</v>
       </c>
@@ -12862,11 +14180,14 @@
       <c r="L38">
         <v>26</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>41671</v>
       </c>
@@ -12899,11 +14220,14 @@
       <c r="L39">
         <v>47</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>41699</v>
       </c>
@@ -12936,11 +14260,14 @@
       <c r="L40">
         <v>34</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41730</v>
       </c>
@@ -12973,11 +14300,14 @@
       <c r="L41">
         <v>26</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41760</v>
       </c>
@@ -13010,11 +14340,14 @@
       <c r="L42">
         <v>44</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41791</v>
       </c>
@@ -13047,11 +14380,14 @@
       <c r="L43">
         <v>40</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>41821</v>
       </c>
@@ -13084,11 +14420,14 @@
       <c r="L44">
         <v>57</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>41852</v>
       </c>
@@ -13121,11 +14460,14 @@
       <c r="L45">
         <v>38</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>41883</v>
       </c>
@@ -13158,11 +14500,14 @@
       <c r="L46">
         <v>46</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>41913</v>
       </c>
@@ -13195,11 +14540,14 @@
       <c r="L47">
         <v>87</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>41944</v>
       </c>
@@ -13232,11 +14580,14 @@
       <c r="L48">
         <v>36</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>41974</v>
       </c>
@@ -13269,11 +14620,14 @@
       <c r="L49">
         <v>35</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42005</v>
       </c>
@@ -13306,11 +14660,14 @@
       <c r="L50">
         <v>33</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42036</v>
       </c>
@@ -13343,11 +14700,14 @@
       <c r="L51">
         <v>53</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42064</v>
       </c>
@@ -13380,11 +14740,14 @@
       <c r="L52">
         <v>65</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>42095</v>
       </c>
@@ -13417,11 +14780,14 @@
       <c r="L53">
         <v>59</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>42125</v>
       </c>
@@ -13454,11 +14820,14 @@
       <c r="L54">
         <v>33</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42156</v>
       </c>
@@ -13491,11 +14860,14 @@
       <c r="L55">
         <v>33</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>42186</v>
       </c>
@@ -13528,11 +14900,14 @@
       <c r="L56">
         <v>33</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>42217</v>
       </c>
@@ -13565,11 +14940,14 @@
       <c r="L57">
         <v>24</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>42248</v>
       </c>
@@ -13602,11 +14980,14 @@
       <c r="L58">
         <v>79</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42278</v>
       </c>
@@ -13639,11 +15020,14 @@
       <c r="L59">
         <v>38</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42309</v>
       </c>
@@ -13676,11 +15060,14 @@
       <c r="L60">
         <v>70</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>42339</v>
       </c>
@@ -13713,11 +15100,14 @@
       <c r="L61">
         <v>148</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42370</v>
       </c>
@@ -13750,11 +15140,14 @@
       <c r="L62">
         <v>148</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>42401</v>
       </c>
@@ -13787,11 +15180,14 @@
       <c r="L63">
         <v>139</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42430</v>
       </c>
@@ -13824,11 +15220,14 @@
       <c r="L64">
         <v>110</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42461</v>
       </c>
@@ -13861,11 +15260,14 @@
       <c r="L65">
         <v>79</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42491</v>
       </c>
@@ -13898,11 +15300,14 @@
       <c r="L66">
         <v>111</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42522</v>
       </c>
@@ -13935,11 +15340,14 @@
       <c r="L67">
         <v>101</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42552</v>
       </c>
@@ -13972,11 +15380,14 @@
       <c r="L68">
         <v>58</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42583</v>
       </c>
@@ -14009,11 +15420,14 @@
       <c r="L69">
         <v>50</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>42614</v>
       </c>
@@ -14046,11 +15460,14 @@
       <c r="L70">
         <v>126</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>42644</v>
       </c>
@@ -14083,11 +15500,14 @@
       <c r="L71">
         <v>139</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>42675</v>
       </c>
@@ -14120,11 +15540,14 @@
       <c r="L72">
         <v>148</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>42705</v>
       </c>
@@ -14157,11 +15580,14 @@
       <c r="L73">
         <v>114</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>42736</v>
       </c>
@@ -14194,8 +15620,11 @@
       <c r="L74">
         <v>70</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="5">
         <v>26</v>
+      </c>
+      <c r="O74" s="5">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -14208,10 +15637,13 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="C1:C1048576 H1:H1048576"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="10.83203125" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -14241,7 +15673,7 @@
       <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14275,7 +15707,7 @@
       <c r="J2">
         <v>50</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <v>100</v>
       </c>
     </row>
@@ -14309,7 +15741,7 @@
       <c r="J3">
         <v>70</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <v>76</v>
       </c>
     </row>
@@ -14343,7 +15775,7 @@
       <c r="J4">
         <v>52</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>72</v>
       </c>
     </row>
@@ -14377,7 +15809,7 @@
       <c r="J5">
         <v>34</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>65</v>
       </c>
     </row>
@@ -14411,7 +15843,7 @@
       <c r="J6">
         <v>63</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>84</v>
       </c>
     </row>
@@ -14445,7 +15877,7 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>61</v>
       </c>
     </row>
@@ -14479,7 +15911,7 @@
       <c r="J8">
         <v>64</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>68</v>
       </c>
     </row>
@@ -14513,7 +15945,7 @@
       <c r="J9">
         <v>45</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>70</v>
       </c>
     </row>
@@ -14547,7 +15979,7 @@
       <c r="J10">
         <v>79</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>68</v>
       </c>
     </row>
@@ -14581,7 +16013,7 @@
       <c r="J11">
         <v>28</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>51</v>
       </c>
     </row>
@@ -14615,7 +16047,7 @@
       <c r="J12">
         <v>38</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>34</v>
       </c>
     </row>
@@ -14649,7 +16081,7 @@
       <c r="J13">
         <v>42</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>42</v>
       </c>
     </row>
@@ -14683,7 +16115,7 @@
       <c r="J14">
         <v>51</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="5">
         <v>52</v>
       </c>
     </row>
@@ -14717,7 +16149,7 @@
       <c r="J15">
         <v>26</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5">
         <v>61</v>
       </c>
     </row>
@@ -14751,7 +16183,7 @@
       <c r="J16" s="2">
         <v>100</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="5">
         <v>51</v>
       </c>
     </row>
@@ -14785,7 +16217,7 @@
       <c r="J17">
         <v>43</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="5">
         <v>55</v>
       </c>
     </row>
@@ -14819,7 +16251,7 @@
       <c r="J18">
         <v>24</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="5">
         <v>40</v>
       </c>
     </row>
@@ -14853,7 +16285,7 @@
       <c r="J19">
         <v>38</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="5">
         <v>58</v>
       </c>
     </row>
@@ -14887,7 +16319,7 @@
       <c r="J20">
         <v>50</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="5">
         <v>53</v>
       </c>
     </row>
@@ -14921,7 +16353,7 @@
       <c r="J21">
         <v>98</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="5">
         <v>60</v>
       </c>
     </row>
@@ -14955,7 +16387,7 @@
       <c r="J22">
         <v>41</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="5">
         <v>34</v>
       </c>
     </row>
@@ -14989,7 +16421,7 @@
       <c r="J23">
         <v>44</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="5">
         <v>42</v>
       </c>
     </row>
@@ -15023,7 +16455,7 @@
       <c r="J24">
         <v>45</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="5">
         <v>61</v>
       </c>
     </row>
@@ -15057,7 +16489,7 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="5">
         <v>39</v>
       </c>
     </row>
@@ -15091,7 +16523,7 @@
       <c r="J26">
         <v>27</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="5">
         <v>50</v>
       </c>
     </row>
@@ -15125,7 +16557,7 @@
       <c r="J27">
         <v>37</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="5">
         <v>50</v>
       </c>
     </row>
@@ -15159,7 +16591,7 @@
       <c r="J28">
         <v>47</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="5">
         <v>60</v>
       </c>
     </row>
@@ -15193,7 +16625,7 @@
       <c r="J29">
         <v>20</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="5">
         <v>49</v>
       </c>
     </row>
@@ -15227,7 +16659,7 @@
       <c r="J30">
         <v>26</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="5">
         <v>51</v>
       </c>
     </row>
@@ -15261,7 +16693,7 @@
       <c r="J31">
         <v>34</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="5">
         <v>80</v>
       </c>
     </row>
@@ -15295,7 +16727,7 @@
       <c r="J32">
         <v>60</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="5">
         <v>71</v>
       </c>
     </row>
@@ -15329,7 +16761,7 @@
       <c r="J33">
         <v>53</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="5">
         <v>52</v>
       </c>
     </row>
@@ -15363,7 +16795,7 @@
       <c r="J34">
         <v>39</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="5">
         <v>49</v>
       </c>
     </row>
@@ -15397,7 +16829,7 @@
       <c r="J35">
         <v>18</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="5">
         <v>46</v>
       </c>
     </row>
@@ -15431,7 +16863,7 @@
       <c r="J36">
         <v>50</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="5">
         <v>50</v>
       </c>
     </row>
@@ -15465,7 +16897,7 @@
       <c r="J37">
         <v>50</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="5">
         <v>48</v>
       </c>
     </row>
@@ -15499,7 +16931,7 @@
       <c r="J38">
         <v>71</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="5">
         <v>29</v>
       </c>
     </row>
@@ -15533,7 +16965,7 @@
       <c r="J39">
         <v>38</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="5">
         <v>52</v>
       </c>
     </row>
@@ -15567,7 +16999,7 @@
       <c r="J40">
         <v>34</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="5">
         <v>39</v>
       </c>
     </row>
@@ -15601,7 +17033,7 @@
       <c r="J41">
         <v>18</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="5">
         <v>36</v>
       </c>
     </row>
@@ -15635,7 +17067,7 @@
       <c r="J42">
         <v>36</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="5">
         <v>39</v>
       </c>
     </row>
@@ -15669,7 +17101,7 @@
       <c r="J43">
         <v>26</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="5">
         <v>29</v>
       </c>
     </row>
@@ -15703,7 +17135,7 @@
       <c r="J44">
         <v>58</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="5">
         <v>41</v>
       </c>
     </row>
@@ -15737,7 +17169,7 @@
       <c r="J45">
         <v>29</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="5">
         <v>26</v>
       </c>
     </row>
@@ -15771,7 +17203,7 @@
       <c r="J46">
         <v>37</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="5">
         <v>35</v>
       </c>
     </row>
@@ -15805,7 +17237,7 @@
       <c r="J47">
         <v>53</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="5">
         <v>39</v>
       </c>
     </row>
@@ -15839,7 +17271,7 @@
       <c r="J48">
         <v>36</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="5">
         <v>34</v>
       </c>
     </row>
@@ -15873,7 +17305,7 @@
       <c r="J49">
         <v>30</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="5">
         <v>35</v>
       </c>
     </row>
@@ -15907,7 +17339,7 @@
       <c r="J50">
         <v>39</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="5">
         <v>34</v>
       </c>
     </row>
@@ -15941,7 +17373,7 @@
       <c r="J51">
         <v>18</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="5">
         <v>40</v>
       </c>
     </row>
@@ -15975,7 +17407,7 @@
       <c r="J52">
         <v>41</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="5">
         <v>39</v>
       </c>
     </row>
@@ -16009,7 +17441,7 @@
       <c r="J53">
         <v>34</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="5">
         <v>35</v>
       </c>
     </row>
@@ -16043,7 +17475,7 @@
       <c r="J54">
         <v>22</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="5">
         <v>26</v>
       </c>
     </row>
@@ -16077,7 +17509,7 @@
       <c r="J55">
         <v>61</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="5">
         <v>32</v>
       </c>
     </row>
@@ -16111,7 +17543,7 @@
       <c r="J56">
         <v>49</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="5">
         <v>35</v>
       </c>
     </row>
@@ -16145,7 +17577,7 @@
       <c r="J57">
         <v>38</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="5">
         <v>34</v>
       </c>
     </row>
@@ -16179,7 +17611,7 @@
       <c r="J58">
         <v>58</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="5">
         <v>32</v>
       </c>
     </row>
@@ -16213,7 +17645,7 @@
       <c r="J59">
         <v>25</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="5">
         <v>30</v>
       </c>
     </row>
@@ -16247,7 +17679,7 @@
       <c r="J60">
         <v>36</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="5">
         <v>32</v>
       </c>
     </row>
@@ -16281,7 +17713,7 @@
       <c r="J61">
         <v>16</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="5">
         <v>36</v>
       </c>
     </row>
@@ -16315,7 +17747,7 @@
       <c r="J62">
         <v>40</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="5">
         <v>29</v>
       </c>
     </row>
@@ -16349,7 +17781,7 @@
       <c r="J63">
         <v>35</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="5">
         <v>42</v>
       </c>
     </row>
@@ -16383,7 +17815,7 @@
       <c r="J64">
         <v>42</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="5">
         <v>55</v>
       </c>
     </row>
@@ -16417,7 +17849,7 @@
       <c r="J65">
         <v>43</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="5">
         <v>63</v>
       </c>
     </row>
@@ -16451,7 +17883,7 @@
       <c r="J66">
         <v>42</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="5">
         <v>47</v>
       </c>
     </row>
@@ -16485,7 +17917,7 @@
       <c r="J67">
         <v>24</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="5">
         <v>40</v>
       </c>
     </row>
@@ -16519,7 +17951,7 @@
       <c r="J68">
         <v>34</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="5">
         <v>40</v>
       </c>
     </row>
@@ -16553,7 +17985,7 @@
       <c r="J69">
         <v>28</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="5">
         <v>41</v>
       </c>
     </row>
@@ -16587,7 +18019,7 @@
       <c r="J70">
         <v>38</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="5">
         <v>52</v>
       </c>
     </row>
@@ -16621,7 +18053,7 @@
       <c r="J71">
         <v>49</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="5">
         <v>44</v>
       </c>
     </row>
@@ -16655,7 +18087,7 @@
       <c r="J72">
         <v>45</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="5">
         <v>39</v>
       </c>
     </row>
@@ -16689,7 +18121,7 @@
       <c r="J73">
         <v>27</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="5">
         <v>34</v>
       </c>
     </row>
@@ -16723,7 +18155,7 @@
       <c r="J74">
         <v>30</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="5">
         <v>29</v>
       </c>
     </row>
@@ -16737,7 +18169,7 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="M1" activeCellId="2" sqref="C1:C1048576 H1:H1048576 M1:M1048576"/>
+      <selection activeCell="J1" activeCellId="1" sqref="I1:I1048576 J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20441,6 +21873,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
